--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_018.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_018.xlsx
@@ -31,322 +31,331 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295016AK2.11) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t>(295025EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) RFCS initiation</t>
-  </si>
-  <si>
-    <t>(295023AK2.03) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295024EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+    <t>(295037EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Shutdown conditions</t>
+  </si>
+  <si>
+    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295016AK2.10) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Shutdown cooling system (RHR shutdown cooling mode)</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
+  </si>
+  <si>
+    <t>(295003AA1.05) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Station batteries</t>
+  </si>
+  <si>
+    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
+  </si>
+  <si>
+    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295026EK2.10) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295025EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Safety/relief valve operation</t>
+  </si>
+  <si>
+    <t>(295006AA1.05) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Neutron monitoring system</t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295023AA2.03) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Airborne contamination levels</t>
+  </si>
+  <si>
+    <t>(295004AK2.01) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Battery charger</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(295024EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell spray (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295001AA1.10) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
+  </si>
+  <si>
+    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295035EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Blow-out panel operation</t>
+  </si>
+  <si>
+    <t>(295033EA1.12) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Systems required for adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295002AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Offgas flow changes</t>
+  </si>
+  <si>
+    <t>(295011AA2.02) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295034EK2.04) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
+  </si>
+  <si>
+    <t>(215005A2.01) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Power supply degradation</t>
+  </si>
+  <si>
+    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
+  </si>
+  <si>
+    <t>(259002K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor water level</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000K2.05) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Water leg pump</t>
+  </si>
+  <si>
+    <t>(262002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Motor generator operation</t>
+  </si>
+  <si>
+    <t>(211000A4.02) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SLCS control switch</t>
+  </si>
+  <si>
+    <t>(203000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(261000K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Primary containment oxygen content (Mark I and II)</t>
+  </si>
+  <si>
+    <t>(205000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Abnormal reactor water level</t>
+  </si>
+  <si>
+    <t>(262001K4.04) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Protective relaying</t>
+  </si>
+  <si>
+    <t>(510000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/discharge blockage</t>
+  </si>
+  <si>
+    <t>(209002A3.07) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Emergency diesel generator operation</t>
+  </si>
+  <si>
+    <t>(264000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (291005K1.05) MOTORS AND GENERATORS (CFR: 41.7) Explain the difference between starting current and operating (running) current in a motor</t>
+  </si>
+  <si>
+    <t>(263000K2.03) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery chargers</t>
+  </si>
+  <si>
+    <t>(215003K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.5 / 45.3) Inoperable</t>
+  </si>
+  <si>
+    <t>(300000A4.02) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Instrument air compressors</t>
+  </si>
+  <si>
+    <t>(209001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(212000K3.07) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power</t>
+  </si>
+  <si>
+    <t>(223002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Containment instrumentation</t>
+  </si>
+  <si>
+    <t>(400000K4.08) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) System response to LOOP signal</t>
+  </si>
+  <si>
+    <t>(215005A2.10) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Changes in void concentration</t>
+  </si>
+  <si>
+    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
+  </si>
+  <si>
+    <t>(259002K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259001K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.7 / 45.7) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(271000K4.06) Knowledge of (SF9 OG) OFFGAS SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Decay of fission product gases</t>
+  </si>
+  <si>
+    <t>(241000A2.01) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of turbine inlet pressure signal</t>
+  </si>
+  <si>
+    <t>(510001A3.01) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Pump starts/stops</t>
+  </si>
+  <si>
+    <t>(239001K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (291004K1.24) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Reason for starting a positive displacement pump with the discharge valve open; need to clear the flow path</t>
+  </si>
+  <si>
+    <t>(223001K2.05) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES Knowledge of electrical power supplies to the following: (CFR: 41.7) Hydrogen recombiners</t>
+  </si>
+  <si>
+    <t>(202002K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.5 / 45.3) Error signals</t>
+  </si>
+  <si>
+    <t>(256000A4.01) Ability to manually operate and/or monitor the (SF2 CDS) CONDENSATE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Condensate/condensate booster pumps</t>
+  </si>
+  <si>
+    <t>(286000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) System flow</t>
+  </si>
+  <si>
+    <t>(215001K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 TIP) TRAVERSING IN CORE PROBE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Local power range monitoring system</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
+  </si>
+  <si>
+    <t>(292004K1.05) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the fuel temperature (Doppler) coefficient of reactivity</t>
+  </si>
+  <si>
+    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
+  </si>
+  <si>
+    <t>(293008K1.01) THERMAL HYDRAULICS (CFR: 41.14) (BOILING HEAT TRANSFER) Distinguish between boiling processes and other heat transfer mechanisms</t>
+  </si>
+  <si>
+    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
   </si>
   <si>
-    <t>(295030EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) HPCI shutdown</t>
-  </si>
-  <si>
-    <t>(295019AK2.21) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295003AA1.08) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Station blackout instrumentation</t>
-  </si>
-  <si>
-    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
-  </si>
-  <si>
-    <t>(295026EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295027EK2.04) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems.</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
-  </si>
-  <si>
-    <t>(295021AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Decay heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Recirculation pump discharge/suction valve manipulation </t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295032EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) Fire protection system</t>
-  </si>
-  <si>
-    <t>(500000EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Oxygen monitoring availability</t>
-  </si>
-  <si>
-    <t>(295008AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Component erosion/damage</t>
-  </si>
-  <si>
-    <t>(295007AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system operation</t>
-  </si>
-  <si>
-    <t>(295010AK2.08) Knowledge of the relationship between the (APE 10) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(209001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of DC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(205000K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(209002K4.10) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Uniform core spray coverage</t>
-  </si>
-  <si>
-    <t>(261000A2.04) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High train moisture content</t>
-  </si>
-  <si>
-    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(239002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(212000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(215004A4.08) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS channel bypass</t>
-  </si>
-  <si>
-    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
-  </si>
-  <si>
-    <t>(400000K2.01) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW pumps</t>
-  </si>
-  <si>
-    <t>(223002A3.04) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Verification of relay operation</t>
-  </si>
-  <si>
-    <t>(218000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) Primary containment/drywell pressure instrumentation</t>
-  </si>
-  <si>
-    <t>(203000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(263000K4.03) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Ground detection</t>
-  </si>
-  <si>
-    <t>(215003A2.05) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (291004K1.05) PUMPS (CFR: 41.3) (CENTRIFUGAL) Discuss relationships among head, flow, and power, as related to pump speed</t>
-  </si>
-  <si>
-    <t>(262002K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t>(259002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) TDRFP speed</t>
-  </si>
-  <si>
-    <t>(211000A4.06) Ability to manually operate and/or monitor the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) RWCU system isolation</t>
-  </si>
-  <si>
-    <t>(217000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(300000K2.01) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Instrument air compressor</t>
-  </si>
-  <si>
-    <t>(264000A3.05) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Load shedding and sequencing</t>
-  </si>
-  <si>
-    <t>(209001K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Suppression pool suction strainer</t>
-  </si>
-  <si>
-    <t>(205000K3.01) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(209002K4.08) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(261000A2.03) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High train temperature</t>
-  </si>
-  <si>
-    <t>(230000K2.01) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(223001A3.01) Ability to monitor automatic operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.7 / 45.7) Suppression pool level makeup system: Mark III</t>
-  </si>
-  <si>
-    <t>(216000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(239001K3.02) Knowledge of the effect that a loss or malfunction of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condenser vacuum</t>
-  </si>
-  <si>
-    <t>(239003K4.05) Knowledge of (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Assurance that any MSIV leakage will pass through the system and into standby gas treatment before release to the atmosphere</t>
-  </si>
-  <si>
-    <t>(215001A2.06) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal valve position (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(268000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 RW) RADWASTE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RWCU system</t>
-  </si>
-  <si>
-    <t>(271000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Recombiner catalyst temperature</t>
-  </si>
-  <si>
-    <t>(201001A4.02) Ability to manually operate and/or monitor the (SF1 CRDH) CRD HYDRAULIC SYSTEM in the control room: (CFR: 41.5-7 / 41.9 / 41.10 / 45.1-6 / 45.8 / 45.12-13) CRD pump discharge valve</t>
-  </si>
-  <si>
-    <t>(245000K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.5 / 45.3) Generator operations and limitations (reference potential)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292006K1.11) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Power changes from steady-state power to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
-  </si>
-  <si>
-    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
-  </si>
-  <si>
-    <t>(293009K1.13) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Define MAPLHGR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293007K1.01) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Describe three mechanisms of heat transfer </t>
-  </si>
-  <si>
-    <t>(293008K1.29) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Describe the effects of increasing bundle power on bundle flow resistance</t>
-  </si>
-  <si>
-    <t>(295016AA2.03) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295018AA2.01) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Component temperatures</t>
-  </si>
-  <si>
-    <t>(295014AA2.05) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Violation of safety limits</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295022AA2.03) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) CRD mechanism temperatures</t>
-  </si>
-  <si>
-    <t>(510000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pipe leakage/rupture</t>
-  </si>
-  <si>
-    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(212000A2.11) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(262001A2.03) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of/degraded offsite power </t>
-  </si>
-  <si>
-    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(288000A2.10) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of standby gas treatment system</t>
-  </si>
-  <si>
-    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, \u201cChanges, Tests and Experiments,\u201d screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295014AA2.03) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cause of reactivity addition</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(203000A2.15) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loop selection logic failure</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(290001A2.01) Ability to (a) predict the impacts of the following on the (SF5 SC) SECONDARY CONTAINMENT and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Personnel airlock failure</t>
+  </si>
+  <si>
+    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(202001A2.06) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent recirculation flow decrease</t>
   </si>
   <si>
     <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
   </si>
   <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>K6</t>
@@ -355,15 +364,6 @@
     <t>K4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
     <t>295016</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
     <t>295025</t>
   </si>
   <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295031</t>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>700000</t>
   </si>
   <si>
     <t>295024</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295030</t>
+    <t>295001</t>
   </si>
   <si>
     <t>295019</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
     <t>295027</t>
   </si>
   <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
     <t>295012</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295007</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293010</t>
   </si>
   <si>
     <t>295010</t>
   </si>
   <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
     <t>295014</t>
   </si>
   <si>
-    <t>295002</t>
-  </si>
-  <si>
     <t>295022</t>
   </si>
   <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>233000</t>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>202001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1446,7 +1446,7 @@
         <v>3.7</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2041,7 +2041,7 @@
         <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2449,7 +2449,7 @@
         <v>3.9</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
